--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang2/03.XNBH/XNBH_29012024_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang2/03.XNBH/XNBH_29012024_AnhTuanNB.xlsx
@@ -530,6 +530,78 @@
     <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,78 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,7 +977,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -997,104 +997,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1104,13 +1104,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1120,15 +1120,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1226,49 +1226,49 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -1308,47 +1308,35 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="15"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H22:I22"/>
@@ -1359,6 +1347,18 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.5" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
